--- a/resultados/Resultado.xlsx
+++ b/resultados/Resultado.xlsx
@@ -86,9 +86,6 @@
     <t>ALSO3.SA</t>
   </si>
   <si>
-    <t>BPAC11.SA</t>
-  </si>
-  <si>
     <t>YDUQ3.SA</t>
   </si>
   <si>
@@ -98,7 +95,10 @@
     <t>MGLU3.SA</t>
   </si>
   <si>
-    <t>XPBR31.SA</t>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>caixa</t>
   </si>
   <si>
     <t>SPY</t>
@@ -560,7 +560,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -571,7 +571,7 @@
         <v>99.84770309041618</v>
       </c>
       <c r="C3">
-        <v>99.10523077375294</v>
+        <v>99.10523134708181</v>
       </c>
       <c r="D3">
         <v>100.5866391856682</v>
@@ -586,7 +586,7 @@
         <v>104.6854222103787</v>
       </c>
       <c r="H3">
-        <v>89.90586573290129</v>
+        <v>100.2568621333953</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -597,7 +597,7 @@
         <v>99.53287956747629</v>
       </c>
       <c r="C4">
-        <v>101.5548136860623</v>
+        <v>101.5548136890542</v>
       </c>
       <c r="D4">
         <v>102.6470532253644</v>
@@ -612,7 +612,7 @@
         <v>98.44708966045314</v>
       </c>
       <c r="H4">
-        <v>91.5790620843898</v>
+        <v>100.4972947794036</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -623,7 +623,7 @@
         <v>100.1115837141063</v>
       </c>
       <c r="C5">
-        <v>99.14248983909205</v>
+        <v>99.14249108686421</v>
       </c>
       <c r="D5">
         <v>99.4389432055702</v>
@@ -638,7 +638,7 @@
         <v>99.07000114956885</v>
       </c>
       <c r="H5">
-        <v>89.52976397334675</v>
+        <v>99.75541086783683</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -649,7 +649,7 @@
         <v>99.62199642965348</v>
       </c>
       <c r="C6">
-        <v>97.38352658276291</v>
+        <v>97.38352778865834</v>
       </c>
       <c r="D6">
         <v>98.82143919753881</v>
@@ -664,7 +664,7 @@
         <v>98.69685937628699</v>
       </c>
       <c r="H6">
-        <v>88.5425479591615</v>
+        <v>99.01460338475508</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -675,7 +675,7 @@
         <v>99.24732430165363</v>
       </c>
       <c r="C7">
-        <v>94.38264788184883</v>
+        <v>94.38264905284699</v>
       </c>
       <c r="D7">
         <v>96.22002217400789</v>
@@ -690,7 +690,7 @@
         <v>85.87163823127995</v>
       </c>
       <c r="H7">
-        <v>85.26459963348393</v>
+        <v>96.23882845214719</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -701,7 +701,7 @@
         <v>99.72792900081404</v>
       </c>
       <c r="C8">
-        <v>95.01154149223173</v>
+        <v>95.01154271131058</v>
       </c>
       <c r="D8">
         <v>96.33812455415449</v>
@@ -716,7 +716,7 @@
         <v>76.67601915366599</v>
       </c>
       <c r="H8">
-        <v>84.97379951047458</v>
+        <v>95.61033862724827</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -727,7 +727,7 @@
         <v>99.30989974519662</v>
       </c>
       <c r="C9">
-        <v>95.54735336079145</v>
+        <v>95.54735457909482</v>
       </c>
       <c r="D9">
         <v>95.57797121208907</v>
@@ -742,7 +742,7 @@
         <v>74.86251395140057</v>
       </c>
       <c r="H9">
-        <v>85.23571128454454</v>
+        <v>95.40360544830799</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -753,7 +753,7 @@
         <v>99.32485385026285</v>
       </c>
       <c r="C10">
-        <v>96.68204845742611</v>
+        <v>96.6820496966678</v>
       </c>
       <c r="D10">
         <v>95.17651367028795</v>
@@ -768,7 +768,7 @@
         <v>75.88972401853788</v>
       </c>
       <c r="H10">
-        <v>85.47052370659303</v>
+        <v>95.57765966460411</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -779,7 +779,7 @@
         <v>99.67985660863036</v>
       </c>
       <c r="C11">
-        <v>99.36393397746808</v>
+        <v>99.36393524928057</v>
       </c>
       <c r="D11">
         <v>97.3845799932316</v>
@@ -794,7 +794,7 @@
         <v>78.4939480158651</v>
       </c>
       <c r="H11">
-        <v>87.5550619088185</v>
+        <v>96.95368739409001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -805,7 +805,7 @@
         <v>99.78639623683162</v>
       </c>
       <c r="C12">
-        <v>100.8966483988712</v>
+        <v>100.8966497210909</v>
       </c>
       <c r="D12">
         <v>97.07560885457772</v>
@@ -820,7 +820,7 @@
         <v>77.69563807034646</v>
       </c>
       <c r="H12">
-        <v>88.40284976100105</v>
+        <v>97.36285652565365</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -831,7 +831,7 @@
         <v>100.5922534502204</v>
       </c>
       <c r="C13">
-        <v>101.8861268099891</v>
+        <v>101.8861281267803</v>
       </c>
       <c r="D13">
         <v>99.17250272581451</v>
@@ -846,7 +846,7 @@
         <v>72.36300985454854</v>
       </c>
       <c r="H13">
-        <v>89.13383076761899</v>
+        <v>97.69070477889812</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -857,7 +857,7 @@
         <v>100.4427050602778</v>
       </c>
       <c r="C14">
-        <v>98.96714132622262</v>
+        <v>98.9671426011371</v>
       </c>
       <c r="D14">
         <v>96.44478752592221</v>
@@ -872,7 +872,7 @@
         <v>75.44119712011386</v>
       </c>
       <c r="H14">
-        <v>87.12393455481872</v>
+        <v>96.84043507885562</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -883,7 +883,7 @@
         <v>100.5982484472505</v>
       </c>
       <c r="C15">
-        <v>100.0169350809978</v>
+        <v>100.0169363613407</v>
       </c>
       <c r="D15">
         <v>96.77337184393849</v>
@@ -898,7 +898,7 @@
         <v>72.14059591234707</v>
       </c>
       <c r="H15">
-        <v>87.88787359115874</v>
+        <v>97.05372090507643</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -909,7 +909,7 @@
         <v>100.6158511849906</v>
       </c>
       <c r="C16">
-        <v>100.6560193828798</v>
+        <v>100.6560206593453</v>
       </c>
       <c r="D16">
         <v>97.02111857835324</v>
@@ -924,7 +924,7 @@
         <v>72.96134683436723</v>
       </c>
       <c r="H16">
-        <v>88.26620338925406</v>
+        <v>97.31813734846878</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -935,7 +935,7 @@
         <v>100.9209688053496</v>
       </c>
       <c r="C17">
-        <v>102.2171387245108</v>
+        <v>102.2171400490569</v>
       </c>
       <c r="D17">
         <v>98.19383334146715</v>
@@ -950,7 +950,7 @@
         <v>72.0724941044615</v>
       </c>
       <c r="H17">
-        <v>89.32386281460785</v>
+        <v>97.93251377573225</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -961,7 +961,7 @@
         <v>100.3410113241605</v>
       </c>
       <c r="C18">
-        <v>102.2052834835112</v>
+        <v>102.2052847739355</v>
       </c>
       <c r="D18">
         <v>97.46764034339502</v>
@@ -976,7 +976,7 @@
         <v>71.35776406920802</v>
       </c>
       <c r="H18">
-        <v>89.12844834054954</v>
+        <v>97.53270007657831</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -987,7 +987,7 @@
         <v>100.0306701721481</v>
       </c>
       <c r="C19">
-        <v>103.513541673694</v>
+        <v>103.5135429928117</v>
       </c>
       <c r="D19">
         <v>97.96955985027873</v>
@@ -1002,7 +1002,7 @@
         <v>68.64213727112563</v>
       </c>
       <c r="H19">
-        <v>89.66513257826087</v>
+        <v>97.4487668387998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1013,7 +1013,7 @@
         <v>100.3471705716975</v>
       </c>
       <c r="C20">
-        <v>104.9979760548817</v>
+        <v>104.9979774003664</v>
       </c>
       <c r="D20">
         <v>99.41500789645683</v>
@@ -1028,7 +1028,7 @@
         <v>66.27072468868485</v>
       </c>
       <c r="H20">
-        <v>90.68459721422292</v>
+        <v>97.92112597625068</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1054,7 +1054,7 @@
         <v>67.80137350570183</v>
       </c>
       <c r="H21">
-        <v>91.90355737558771</v>
+        <v>98.84533463370909</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1080,7 +1080,7 @@
         <v>70.47930651049231</v>
       </c>
       <c r="H22">
-        <v>92.2805301447036</v>
+        <v>98.76129147586703</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1106,7 +1106,7 @@
         <v>71.55830863093756</v>
       </c>
       <c r="H23">
-        <v>92.61396462871899</v>
+        <v>98.51477189603841</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1132,7 +1132,7 @@
         <v>69.38682368362602</v>
       </c>
       <c r="H24">
-        <v>93.56970489013433</v>
+        <v>98.84568100031369</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1158,7 +1158,7 @@
         <v>70.10316627694699</v>
       </c>
       <c r="H25">
-        <v>92.37092882599954</v>
+        <v>98.22326391618085</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1184,7 +1184,7 @@
         <v>73.33940341001596</v>
       </c>
       <c r="H26">
-        <v>92.0140816143324</v>
+        <v>98.23825302509348</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1210,7 +1210,7 @@
         <v>72.52344723402803</v>
       </c>
       <c r="H27">
-        <v>92.25151463442336</v>
+        <v>98.20778272028892</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1236,7 +1236,7 @@
         <v>72.49048272862355</v>
       </c>
       <c r="H28">
-        <v>91.26855667631568</v>
+        <v>97.62383704509787</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1262,7 +1262,7 @@
         <v>70.37237033654102</v>
       </c>
       <c r="H29">
-        <v>89.94311877193535</v>
+        <v>97.13676446081983</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1288,7 +1288,7 @@
         <v>67.90525644101501</v>
       </c>
       <c r="H30">
-        <v>88.6356120636393</v>
+        <v>96.44037302294235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1314,7 +1314,7 @@
         <v>55.61232792091584</v>
       </c>
       <c r="H31">
-        <v>85.18971072556749</v>
+        <v>93.7578057777546</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1340,7 +1340,7 @@
         <v>56.81317022011823</v>
       </c>
       <c r="H32">
-        <v>84.37191990427759</v>
+        <v>93.49859056853802</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1366,7 +1366,7 @@
         <v>51.15646880804136</v>
       </c>
       <c r="H33">
-        <v>84.70673784391987</v>
+        <v>93.30815190269263</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1392,7 +1392,7 @@
         <v>48.46918666200289</v>
       </c>
       <c r="H34">
-        <v>82.4224398543728</v>
+        <v>92.1888399553179</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1418,7 +1418,7 @@
         <v>51.89421300767956</v>
       </c>
       <c r="H35">
-        <v>82.50277337481666</v>
+        <v>92.58845218584101</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1444,7 +1444,7 @@
         <v>55.85283955917277</v>
       </c>
       <c r="H36">
-        <v>82.0609807249608</v>
+        <v>92.53491140567887</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1470,7 +1470,7 @@
         <v>57.04831014467855</v>
       </c>
       <c r="H37">
-        <v>81.64628026285435</v>
+        <v>92.3630284700492</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1496,7 +1496,7 @@
         <v>57.54756013831481</v>
       </c>
       <c r="H38">
-        <v>82.73440053665149</v>
+        <v>92.971245730593</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1522,7 +1522,7 @@
         <v>53.69122005091575</v>
       </c>
       <c r="H39">
-        <v>83.42861693828591</v>
+        <v>93.05346371559905</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1548,7 +1548,7 @@
         <v>52.09537862162686</v>
       </c>
       <c r="H40">
-        <v>83.1597651813828</v>
+        <v>92.57627552160064</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1574,7 +1574,7 @@
         <v>52.55953952941033</v>
       </c>
       <c r="H41">
-        <v>82.59267927651794</v>
+        <v>92.27197038995811</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1600,7 +1600,7 @@
         <v>51.45814444149178</v>
       </c>
       <c r="H42">
-        <v>81.66350445317482</v>
+        <v>91.80171898758404</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1626,7 +1626,7 @@
         <v>51.62170213782313</v>
       </c>
       <c r="H43">
-        <v>81.78749671871597</v>
+        <v>92.0219538159742</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2274,10 @@
         <v>44767</v>
       </c>
       <c r="B58">
-        <v>94.08019550774107</v>
+        <v>94.02751338628457</v>
       </c>
       <c r="C58">
-        <v>94.97904166497263</v>
+        <v>95.46275430312126</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3144,6 +3144,20 @@
         <v>1863.04</v>
       </c>
     </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B62">
+        <v>740.15</v>
+      </c>
+      <c r="C62">
+        <v>11859.15</v>
+      </c>
+      <c r="D62">
+        <v>1854.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3151,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3203,838 +3217,1102 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3">
-        <v>44683</v>
+        <v>44711</v>
       </c>
       <c r="B2">
-        <v>82.91999816894531</v>
+        <v>86.65000152587891</v>
       </c>
       <c r="C2">
-        <v>20.66540145874023</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="D2">
-        <v>16.14599227905273</v>
+        <v>17.46167945861816</v>
       </c>
       <c r="E2">
-        <v>11.69999980926514</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="F2">
-        <v>43.86999893188477</v>
+        <v>49.31000137329102</v>
       </c>
       <c r="G2">
-        <v>8.949999809265137</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="H2">
-        <v>4.760000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="I2">
-        <v>20.05606842041016</v>
+        <v>19.21999931335449</v>
       </c>
       <c r="J2">
-        <v>23.07999992370605</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="K2">
-        <v>15.77999973297119</v>
+        <v>22.42000007629395</v>
       </c>
       <c r="L2">
-        <v>20.54000091552734</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="M2">
-        <v>4.800000190734863</v>
+        <v>35.80258941650391</v>
       </c>
       <c r="N2">
-        <v>121.9899978637695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3">
-        <v>44684</v>
+        <v>44712</v>
       </c>
       <c r="B3">
-        <v>82.5</v>
+        <v>86.20999908447266</v>
       </c>
       <c r="C3">
-        <v>20.9217472076416</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="D3">
-        <v>15.38303852081299</v>
+        <v>17.6693229675293</v>
       </c>
       <c r="E3">
-        <v>11.44999980926514</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="F3">
-        <v>43.56000137329102</v>
+        <v>48.75</v>
       </c>
       <c r="G3">
-        <v>8.880000114440918</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="H3">
-        <v>4.809999942779541</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="I3">
-        <v>20.04999923706055</v>
+        <v>19.30999946594238</v>
       </c>
       <c r="J3">
-        <v>22.63999938964844</v>
+        <v>16.18000030517578</v>
       </c>
       <c r="K3">
-        <v>15.80000019073486</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="L3">
-        <v>20.59000015258789</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="M3">
-        <v>4.599999904632568</v>
+        <v>36.3485107421875</v>
       </c>
       <c r="N3">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3">
-        <v>44685</v>
+        <v>44713</v>
       </c>
       <c r="B4">
-        <v>81.80999755859375</v>
+        <v>88.23999786376953</v>
       </c>
       <c r="C4">
-        <v>21.92741012573242</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="D4">
-        <v>16.18413925170898</v>
+        <v>17.85718727111816</v>
       </c>
       <c r="E4">
-        <v>11.63000011444092</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="F4">
-        <v>45.59999847412109</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="G4">
-        <v>9.319999694824219</v>
+        <v>9.75</v>
       </c>
       <c r="H4">
-        <v>4.980000019073486</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="I4">
-        <v>20.11000061035156</v>
+        <v>18.65999984741211</v>
       </c>
       <c r="J4">
-        <v>23.02000045776367</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="K4">
-        <v>16.5</v>
+        <v>23.46999931335449</v>
       </c>
       <c r="L4">
-        <v>21.15999984741211</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="M4">
-        <v>4.949999809265137</v>
+        <v>36.41799163818359</v>
       </c>
       <c r="N4">
-        <v>107.5999984741211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3">
-        <v>44686</v>
+        <v>44714</v>
       </c>
       <c r="B5">
-        <v>80.33000183105469</v>
+        <v>89.90000152587891</v>
       </c>
       <c r="C5">
-        <v>22.18375778198242</v>
+        <v>22.75</v>
       </c>
       <c r="D5">
-        <v>15.90931129455566</v>
+        <v>17.69898414611816</v>
       </c>
       <c r="E5">
-        <v>11.18000030517578</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="F5">
-        <v>44.38000106811523</v>
+        <v>48.56000137329102</v>
       </c>
       <c r="G5">
-        <v>8.909999847412109</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="H5">
-        <v>4.869999885559082</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="I5">
-        <v>19.17000007629395</v>
+        <v>19.11000061035156</v>
       </c>
       <c r="J5">
-        <v>22.1200008392334</v>
+        <v>16.64999961853027</v>
       </c>
       <c r="K5">
-        <v>15.5600004196167</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="L5">
-        <v>21.06999969482422</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="M5">
-        <v>4.420000076293945</v>
+        <v>36.44777297973633</v>
       </c>
       <c r="N5">
-        <v>106.6999969482422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3">
-        <v>44687</v>
+        <v>44715</v>
       </c>
       <c r="B6">
-        <v>79.76000213623047</v>
+        <v>88.45999908447266</v>
       </c>
       <c r="C6">
-        <v>22.05558395385742</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="D6">
-        <v>15.37537574768066</v>
+        <v>16.6805534362793</v>
       </c>
       <c r="E6">
-        <v>10.96000003814697</v>
+        <v>11.32999992370605</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="G6">
-        <v>8.340000152587891</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="H6">
-        <v>4.860000133514404</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="I6">
-        <v>18.6299991607666</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="J6">
-        <v>21.89999961853027</v>
+        <v>15.72000026702881</v>
       </c>
       <c r="K6">
-        <v>15.11999988555908</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="L6">
-        <v>20.53000068664551</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="M6">
-        <v>4.300000190734863</v>
+        <v>35.94155120849609</v>
       </c>
       <c r="N6">
-        <v>102.8000030517578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3">
-        <v>44690</v>
+        <v>44718</v>
       </c>
       <c r="B7">
-        <v>76.48999786376953</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="C7">
-        <v>21.56999969482422</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="D7">
-        <v>14.93042945861816</v>
+        <v>16.32459449768066</v>
       </c>
       <c r="E7">
-        <v>10.68000030517578</v>
+        <v>10.98999977111816</v>
       </c>
       <c r="F7">
-        <v>40.16999816894531</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="G7">
-        <v>8.130000114440918</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="H7">
-        <v>4.78000020980835</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="I7">
-        <v>18.85000038146973</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="J7">
-        <v>22.69000053405762</v>
+        <v>15.17000007629395</v>
       </c>
       <c r="K7">
-        <v>14.60000038146973</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="L7">
-        <v>19.6299991607666</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="M7">
-        <v>3.910000085830688</v>
+        <v>35.49488830566406</v>
       </c>
       <c r="N7">
-        <v>97.48999786376953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3">
-        <v>44691</v>
+        <v>44719</v>
       </c>
       <c r="B8">
-        <v>75.54000091552734</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22.22999954223633</v>
       </c>
       <c r="D8">
-        <v>15.54346656799316</v>
+        <v>16.36414527893066</v>
       </c>
       <c r="E8">
-        <v>10.89000034332275</v>
+        <v>10.76000022888184</v>
       </c>
       <c r="F8">
-        <v>40.45999908447266</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="G8">
-        <v>8.510000228881836</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="H8">
-        <v>4.840000152587891</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>18.8700008392334</v>
+        <v>18.45999908447266</v>
       </c>
       <c r="J8">
-        <v>23.3700008392334</v>
+        <v>15.18000030517578</v>
       </c>
       <c r="K8">
-        <v>14.68000030517578</v>
+        <v>23.21999931335449</v>
       </c>
       <c r="L8">
-        <v>19.36000061035156</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="M8">
-        <v>3.950000047683716</v>
+        <v>35.24674224853516</v>
       </c>
       <c r="N8">
-        <v>96.19999694824219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3">
-        <v>44692</v>
+        <v>44720</v>
       </c>
       <c r="B9">
-        <v>78.69000244140625</v>
+        <v>87.5</v>
       </c>
       <c r="C9">
-        <v>21.15999984741211</v>
+        <v>21.94000053405762</v>
       </c>
       <c r="D9">
-        <v>15.53357887268066</v>
+        <v>15.50391578674316</v>
       </c>
       <c r="E9">
-        <v>10.69999980926514</v>
+        <v>10.67000007629395</v>
       </c>
       <c r="F9">
-        <v>41.52000045776367</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="G9">
-        <v>8.399999618530273</v>
+        <v>8.810000419616699</v>
       </c>
       <c r="H9">
-        <v>4.739999771118164</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="I9">
-        <v>19.04000091552734</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="J9">
-        <v>22.6299991607666</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="K9">
-        <v>14.25</v>
+        <v>23.43000030517578</v>
       </c>
       <c r="L9">
-        <v>19.38999938964844</v>
+        <v>3.220000028610229</v>
       </c>
       <c r="M9">
-        <v>3.930000066757202</v>
+        <v>34.92911148071289</v>
       </c>
       <c r="N9">
-        <v>93.18000030517578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3">
-        <v>44693</v>
+        <v>44721</v>
       </c>
       <c r="B10">
-        <v>77.90000152587891</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="C10">
-        <v>20.89999961853027</v>
+        <v>21.79000091552734</v>
       </c>
       <c r="D10">
-        <v>15.80054664611816</v>
+        <v>15.76099586486816</v>
       </c>
       <c r="E10">
-        <v>10.64000034332275</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="F10">
-        <v>41.09000015258789</v>
+        <v>46.02000045776367</v>
       </c>
       <c r="G10">
-        <v>8.739999771118164</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="H10">
-        <v>4.860000133514404</v>
+        <v>4.980000019073486</v>
       </c>
       <c r="I10">
-        <v>19.56999969482422</v>
+        <v>18.29000091552734</v>
       </c>
       <c r="J10">
-        <v>23.65999984741211</v>
+        <v>14.98999977111816</v>
       </c>
       <c r="K10">
-        <v>15.10999965667725</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="L10">
-        <v>19.97999954223633</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="M10">
-        <v>4.179999828338623</v>
+        <v>34.87948608398438</v>
       </c>
       <c r="N10">
-        <v>101.8199996948242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3">
-        <v>44694</v>
+        <v>44722</v>
       </c>
       <c r="B11">
-        <v>77.80999755859375</v>
+        <v>84.55999755859375</v>
       </c>
       <c r="C11">
-        <v>22.15999984741211</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="D11">
-        <v>16.21582984924316</v>
+        <v>15.33582496643066</v>
       </c>
       <c r="E11">
-        <v>10.93000030517578</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F11">
-        <v>42.27000045776367</v>
+        <v>44.56999969482422</v>
       </c>
       <c r="G11">
-        <v>8.850000381469727</v>
+        <v>8.630000114440918</v>
       </c>
       <c r="H11">
-        <v>4.920000076293945</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="I11">
-        <v>19.69000053405762</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="J11">
-        <v>24.25</v>
+        <v>14.25</v>
       </c>
       <c r="K11">
-        <v>16.94000053405762</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="L11">
-        <v>22.10000038146973</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="M11">
-        <v>4.380000114440918</v>
+        <v>34.29385757446289</v>
       </c>
       <c r="N11">
-        <v>102.1999969482422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3">
-        <v>44697</v>
+        <v>44725</v>
       </c>
       <c r="B12">
-        <v>80.13999938964844</v>
+        <v>81.87999725341797</v>
       </c>
       <c r="C12">
-        <v>21.82999992370605</v>
+        <v>21.34000015258789</v>
       </c>
       <c r="D12">
-        <v>16.85853004455566</v>
+        <v>14.35694313049316</v>
       </c>
       <c r="E12">
-        <v>10.97000026702881</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="F12">
-        <v>43.02999877929688</v>
+        <v>42.65999984741211</v>
       </c>
       <c r="G12">
-        <v>8.960000038146973</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="H12">
-        <v>5.099999904632568</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="I12">
-        <v>19.8700008392334</v>
+        <v>17.27000045776367</v>
       </c>
       <c r="J12">
-        <v>24.52000045776367</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="K12">
-        <v>16.82999992370605</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="L12">
-        <v>21.98999977111816</v>
+        <v>2.670000076293945</v>
       </c>
       <c r="M12">
-        <v>4.380000114440918</v>
+        <v>33.50971603393555</v>
       </c>
       <c r="N12">
-        <v>95.94999694824219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3">
-        <v>44698</v>
+        <v>44726</v>
       </c>
       <c r="B13">
-        <v>79.80000305175781</v>
+        <v>81.72000122070312</v>
       </c>
       <c r="C13">
-        <v>22.27000045776367</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="D13">
-        <v>16.78931617736816</v>
+        <v>13.85266971588135</v>
       </c>
       <c r="E13">
-        <v>11.19999980926514</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="F13">
-        <v>43.16999816894531</v>
+        <v>40.84000015258789</v>
       </c>
       <c r="G13">
-        <v>9.100000381469727</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="H13">
-        <v>5.210000038146973</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="I13">
-        <v>20.1200008392334</v>
+        <v>17.05999946594238</v>
       </c>
       <c r="J13">
-        <v>24.82999992370605</v>
+        <v>13.47000026702881</v>
       </c>
       <c r="K13">
-        <v>17.55999946594238</v>
+        <v>21.18000030517578</v>
       </c>
       <c r="L13">
-        <v>22.57999992370605</v>
+        <v>2.539999961853027</v>
       </c>
       <c r="M13">
-        <v>3.940000057220459</v>
+        <v>33.52000045776367</v>
       </c>
       <c r="N13">
-        <v>99.01000213623047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3">
-        <v>44699</v>
+        <v>44727</v>
       </c>
       <c r="B14">
-        <v>77.77999877929688</v>
+        <v>81.66999816894531</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="D14">
-        <v>16.25538063049316</v>
+        <v>14.11963748931885</v>
       </c>
       <c r="E14">
-        <v>10.61999988555908</v>
+        <v>9.770000457763672</v>
       </c>
       <c r="F14">
-        <v>41.36000061035156</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="H14">
-        <v>5.039999961853027</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="I14">
-        <v>19.35000038146973</v>
+        <v>17.54000091552734</v>
       </c>
       <c r="J14">
-        <v>23.8700008392334</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="K14">
-        <v>17.57999992370605</v>
+        <v>21.75</v>
       </c>
       <c r="L14">
-        <v>22.14999961853027</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="M14">
-        <v>3.720000028610229</v>
+        <v>34.04999923706055</v>
       </c>
       <c r="N14">
-        <v>95.73000335693359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3">
-        <v>44700</v>
+        <v>44729</v>
       </c>
       <c r="B15">
-        <v>79.84999847412109</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C15">
-        <v>21.75</v>
+        <v>20.36000061035156</v>
       </c>
       <c r="D15">
-        <v>16.32459449768066</v>
+        <v>13.84278202056885</v>
       </c>
       <c r="E15">
-        <v>10.69999980926514</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="F15">
-        <v>41.83000183105469</v>
+        <v>36.75</v>
       </c>
       <c r="G15">
-        <v>8.899999618530273</v>
+        <v>8.560000419616699</v>
       </c>
       <c r="H15">
-        <v>5.139999866485596</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="I15">
-        <v>19.10000038146973</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="J15">
-        <v>24.54000091552734</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="K15">
-        <v>17.96999931335449</v>
+        <v>21.45000076293945</v>
       </c>
       <c r="L15">
-        <v>22.13999938964844</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="M15">
-        <v>3.730000019073486</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="N15">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3">
-        <v>44701</v>
+        <v>44732</v>
       </c>
       <c r="B16">
-        <v>81.26000213623047</v>
+        <v>75.5</v>
       </c>
       <c r="C16">
-        <v>21.81999969482422</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="D16">
-        <v>16.27515602111816</v>
+        <v>14.02076053619385</v>
       </c>
       <c r="E16">
-        <v>10.85000038146973</v>
+        <v>9.489999771118164</v>
       </c>
       <c r="F16">
-        <v>42.56000137329102</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="G16">
-        <v>8.800000190734863</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="H16">
-        <v>5.159999847412109</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="I16">
-        <v>19.01000022888184</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="J16">
-        <v>24.67000007629395</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="K16">
-        <v>17.72999954223633</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="L16">
-        <v>22.31999969482422</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="M16">
-        <v>3.670000076293945</v>
+        <v>34.38999938964844</v>
       </c>
       <c r="N16">
-        <v>103.8600006103516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3">
-        <v>44704</v>
+        <v>44733</v>
       </c>
       <c r="B17">
-        <v>82.91999816894531</v>
+        <v>76</v>
       </c>
       <c r="C17">
-        <v>22.22999954223633</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="D17">
-        <v>16.88819313049316</v>
+        <v>13.91199493408203</v>
       </c>
       <c r="E17">
-        <v>10.77999973297119</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="F17">
-        <v>43.72000122070312</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="G17">
-        <v>8.760000228881836</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="H17">
-        <v>5.25</v>
+        <v>4.570000171661377</v>
       </c>
       <c r="I17">
-        <v>19.46999931335449</v>
+        <v>16.78000068664551</v>
       </c>
       <c r="J17">
-        <v>24.44000053405762</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="K17">
-        <v>17.95999908447266</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="L17">
-        <v>22.28000068664551</v>
+        <v>2.509999990463257</v>
       </c>
       <c r="M17">
-        <v>3.700000047683716</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="N17">
-        <v>103.6100006103516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3">
-        <v>44705</v>
+        <v>44734</v>
       </c>
       <c r="B18">
-        <v>84.04000091552734</v>
+        <v>75.34999847412109</v>
       </c>
       <c r="C18">
-        <v>22.09000015258789</v>
+        <v>20.02000045776367</v>
       </c>
       <c r="D18">
-        <v>16.45313453674316</v>
+        <v>13.78345489501953</v>
       </c>
       <c r="E18">
-        <v>10.52000045776367</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="F18">
-        <v>45.20000076293945</v>
+        <v>33.97000122070312</v>
       </c>
       <c r="G18">
-        <v>9.210000038146973</v>
+        <v>8.350000381469727</v>
       </c>
       <c r="H18">
-        <v>5.199999809265137</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="I18">
-        <v>19.01000022888184</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="J18">
-        <v>24.26000022888184</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="K18">
-        <v>17.67000007629395</v>
+        <v>21.29000091552734</v>
       </c>
       <c r="L18">
-        <v>21.63999938964844</v>
+        <v>2.440000057220459</v>
       </c>
       <c r="M18">
-        <v>3.710000038146973</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="N18">
-        <v>99.80000305175781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3">
-        <v>44706</v>
+        <v>44735</v>
       </c>
       <c r="B19">
-        <v>84.30000305175781</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="C19">
-        <v>21.60000038146973</v>
+        <v>19.52000045776367</v>
       </c>
       <c r="D19">
-        <v>16.81897926330566</v>
+        <v>13.81311893463135</v>
       </c>
       <c r="E19">
-        <v>11.44999980926514</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="F19">
-        <v>46.59999847412109</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="G19">
-        <v>9.199999809265137</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="H19">
-        <v>5.170000076293945</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="J19">
-        <v>24.68000030517578</v>
+        <v>13.75</v>
       </c>
       <c r="K19">
-        <v>17.67000007629395</v>
+        <v>21.5</v>
       </c>
       <c r="L19">
-        <v>22.63999938964844</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="M19">
-        <v>3.710000038146973</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="N19">
-        <v>102.3600006103516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3">
-        <v>44707</v>
+        <v>44736</v>
       </c>
       <c r="B20">
-        <v>84.25</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="C20">
-        <v>22.17000007629395</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="D20">
-        <v>17.1551628112793</v>
+        <v>13.50659942626953</v>
       </c>
       <c r="E20">
-        <v>11.85999965667725</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="F20">
-        <v>48.18000030517578</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="G20">
-        <v>9.079999923706055</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="H20">
-        <v>5.28000020980835</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="I20">
-        <v>18.85000038146973</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="J20">
-        <v>24.95000076293945</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="K20">
-        <v>18.05999946594238</v>
+        <v>21.52000045776367</v>
       </c>
       <c r="L20">
-        <v>22.75</v>
+        <v>2.470000028610229</v>
       </c>
       <c r="M20">
-        <v>4.070000171661377</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="N20">
-        <v>107.9300003051758</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B21">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="C21">
+        <v>20.14999961853027</v>
+      </c>
+      <c r="D21">
+        <v>13.55603885650635</v>
+      </c>
+      <c r="E21">
+        <v>9.670000076293945</v>
+      </c>
+      <c r="F21">
+        <v>36.38000106811523</v>
+      </c>
+      <c r="G21">
+        <v>8.140000343322754</v>
+      </c>
+      <c r="H21">
+        <v>4.639999866485596</v>
+      </c>
+      <c r="I21">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="J21">
+        <v>13.96000003814697</v>
+      </c>
+      <c r="K21">
+        <v>22.18000030517578</v>
+      </c>
+      <c r="L21">
+        <v>2.430000066757202</v>
+      </c>
+      <c r="M21">
+        <v>33.13000106811523</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B22">
+        <v>79.44999694824219</v>
+      </c>
+      <c r="C22">
+        <v>20.25</v>
+      </c>
+      <c r="D22">
+        <v>13.52637577056885</v>
+      </c>
+      <c r="E22">
+        <v>9.640000343322754</v>
+      </c>
+      <c r="F22">
+        <v>36.15999984741211</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>4.659999847412109</v>
+      </c>
+      <c r="I22">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="J22">
+        <v>13.57999992370605</v>
+      </c>
+      <c r="K22">
+        <v>22.79000091552734</v>
+      </c>
+      <c r="L22">
+        <v>2.380000114440918</v>
+      </c>
+      <c r="M22">
+        <v>33.25</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B23">
+        <v>78.79000091552734</v>
+      </c>
+      <c r="C23">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D23">
+        <v>13.32862091064453</v>
+      </c>
+      <c r="E23">
+        <v>9.460000038146973</v>
+      </c>
+      <c r="F23">
+        <v>35.90000152587891</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>4.650000095367432</v>
+      </c>
+      <c r="I23">
+        <v>16.13999938964844</v>
+      </c>
+      <c r="J23">
+        <v>13.39999961853027</v>
+      </c>
+      <c r="K23">
+        <v>22.46999931335449</v>
+      </c>
+      <c r="L23">
+        <v>2.410000085830688</v>
+      </c>
+      <c r="M23">
+        <v>33.08000183105469</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B24">
+        <v>76.55999755859375</v>
+      </c>
+      <c r="C24">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="D24">
+        <v>12.90345001220703</v>
+      </c>
+      <c r="E24">
+        <v>9.590000152587891</v>
+      </c>
+      <c r="F24">
+        <v>35.15000152587891</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>4.619999885559082</v>
+      </c>
+      <c r="I24">
+        <v>16.01000022888184</v>
+      </c>
+      <c r="J24">
+        <v>13.06999969482422</v>
+      </c>
+      <c r="K24">
+        <v>22.22999954223633</v>
+      </c>
+      <c r="L24">
+        <v>2.339999914169312</v>
+      </c>
+      <c r="M24">
+        <v>33.38000106811523</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B25">
+        <v>75.09999847412109</v>
+      </c>
+      <c r="C25">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="D25">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="E25">
+        <v>9.319999694824219</v>
+      </c>
+      <c r="F25">
+        <v>35.59000015258789</v>
+      </c>
+      <c r="G25">
+        <v>8.279999732971191</v>
+      </c>
+      <c r="H25">
+        <v>4.659999847412109</v>
+      </c>
+      <c r="I25">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="J25">
+        <v>12.97999954223633</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="M25">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3">
+        <v>44746</v>
+      </c>
+      <c r="B26">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="C26">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="D26">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="E26">
+        <v>9.090000152587891</v>
+      </c>
+      <c r="F26">
+        <v>36.27999877929688</v>
+      </c>
+      <c r="G26">
+        <v>8.289999961853027</v>
+      </c>
+      <c r="H26">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="I26">
+        <v>16.45000076293945</v>
+      </c>
+      <c r="J26">
+        <v>12.42000007629395</v>
+      </c>
+      <c r="K26">
+        <v>21.5</v>
+      </c>
+      <c r="L26">
+        <v>2.130000114440918</v>
+      </c>
+      <c r="M26">
+        <v>33.04000091552734</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5799,7 +6077,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7490,19 +7768,39 @@
         <v>44766</v>
       </c>
       <c r="B85">
-        <v>117125.09</v>
+        <v>114999.71</v>
       </c>
       <c r="C85">
-        <v>8012.06</v>
+        <v>7772.83</v>
       </c>
       <c r="D85">
-        <v>37.48</v>
+        <v>36.5</v>
       </c>
       <c r="E85">
-        <v>1.737</v>
+        <v>1.681</v>
       </c>
       <c r="F85">
-        <v>4.353</v>
+        <v>4.152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B86">
+        <v>113329.11</v>
+      </c>
+      <c r="C86">
+        <v>7482.21</v>
+      </c>
+      <c r="D86">
+        <v>35.63</v>
+      </c>
+      <c r="E86">
+        <v>1.648</v>
+      </c>
+      <c r="F86">
+        <v>4.007</v>
       </c>
     </row>
   </sheetData>
